--- a/src/main/resources/DBTemplate.xlsx
+++ b/src/main/resources/DBTemplate.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" activeTab="2" xr2:uid="{C0F8F8FC-0936-46C7-8770-C46CBCF440AE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" activeTab="1" xr2:uid="{C0F8F8FC-0936-46C7-8770-C46CBCF440AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer" sheetId="1" r:id="rId1"/>
-    <sheet name="Owner" sheetId="2" r:id="rId2"/>
-    <sheet name="Car" sheetId="3" r:id="rId3"/>
+    <sheet name="OWNERTYPE" sheetId="4" r:id="rId1"/>
+    <sheet name="OWNER" sheetId="2" r:id="rId2"/>
+    <sheet name="CUSTOMERTYPE" sheetId="5" r:id="rId3"/>
+    <sheet name="CUSTOMER" sheetId="1" r:id="rId4"/>
+    <sheet name="CARTYPE" sheetId="6" r:id="rId5"/>
+    <sheet name="CAR" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Customer Name</t>
   </si>
@@ -34,9 +37,6 @@
     <t>Customer Type</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>Owner Name</t>
   </si>
   <si>
@@ -62,13 +62,49 @@
   </si>
   <si>
     <t>Weekly Rate</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>COMPACT</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUV </t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>TRUCK</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Rental Location</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +125,13 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,13 +154,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,27 +475,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44C874-0870-455B-B783-92AAE3F49743}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5DF85B-9437-4CC8-9EDB-71404EAF2179}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -464,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D53854-4977-40B5-AEC6-C0202BE0ACA5}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -477,13 +527,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -495,10 +545,172 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3563D554-5C91-4E5E-BB6C-BE7CCC3CF167}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44C874-0870-455B-B783-92AAE3F49743}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74590457-6D7E-44A2-B0D8-F8D46DC5B52A}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E70FC8-86B1-4515-B960-1708D28F4023}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -507,29 +719,28 @@
     <col min="1" max="1" width="14.54296875" customWidth="1"/>
     <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.36328125" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" customWidth="1"/>
+    <col min="4" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
